--- a/MorronTrailRun2022.xlsx
+++ b/MorronTrailRun2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\morron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Carlos\Documents\cronometraje\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BE740EB-5021-4495-B9E1-14E7C857EC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4922EBBF-992F-494A-BD80-C9237C2EF668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MorronTrailRun2022" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="327">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -770,6 +770,237 @@
   </si>
   <si>
     <t>False</t>
+  </si>
+  <si>
+    <t>26/06/2022 13:46:19</t>
+  </si>
+  <si>
+    <t>se.bass0688@gmail.com</t>
+  </si>
+  <si>
+    <t>CARDONA QUICENO</t>
+  </si>
+  <si>
+    <t>JOSÉ SEBASTIÁN</t>
+  </si>
+  <si>
+    <t>29/06/2022 20:39:40</t>
+  </si>
+  <si>
+    <t>carlosgira20@hotmail.com</t>
+  </si>
+  <si>
+    <t>Giraldo Diaz</t>
+  </si>
+  <si>
+    <t>Carlos Alberto</t>
+  </si>
+  <si>
+    <t>29/06/2022 21:08:04</t>
+  </si>
+  <si>
+    <t>jordanyduque9@gmail.com</t>
+  </si>
+  <si>
+    <t>Duque chica</t>
+  </si>
+  <si>
+    <t>Wilder jordany</t>
+  </si>
+  <si>
+    <t>30/06/2022 9:54:50</t>
+  </si>
+  <si>
+    <t>paurendon@gmail.com</t>
+  </si>
+  <si>
+    <t>Rendón</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>Nueva</t>
+  </si>
+  <si>
+    <t>30/06/2022 17:17:23</t>
+  </si>
+  <si>
+    <t>diegoforonda16@outlook.com</t>
+  </si>
+  <si>
+    <t>FORONDA PALACIO</t>
+  </si>
+  <si>
+    <t>DIEGO ALEXANDER</t>
+  </si>
+  <si>
+    <t>30/06/2022 21:18:24</t>
+  </si>
+  <si>
+    <t>jupegui@tennis.com.co</t>
+  </si>
+  <si>
+    <t>Upegui hoyos</t>
+  </si>
+  <si>
+    <t>Julián Hernando</t>
+  </si>
+  <si>
+    <t>1/07/2022 7:48:41</t>
+  </si>
+  <si>
+    <t>Leguizamo</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>1/07/2022 8:09:17</t>
+  </si>
+  <si>
+    <t>joseignaciopiedrahita1912@gmail.com</t>
+  </si>
+  <si>
+    <t>Piedrahíta Ramirez</t>
+  </si>
+  <si>
+    <t>José Ignacio</t>
+  </si>
+  <si>
+    <t>1/07/2022 9:07:24</t>
+  </si>
+  <si>
+    <t>nicolasagudelo111@gmail.com</t>
+  </si>
+  <si>
+    <t>Agudelo Martínez</t>
+  </si>
+  <si>
+    <t>Nicolás</t>
+  </si>
+  <si>
+    <t>2/07/2022 19:05:03</t>
+  </si>
+  <si>
+    <t>lisethamell@gmail.com</t>
+  </si>
+  <si>
+    <t>Amell</t>
+  </si>
+  <si>
+    <t>Liseth</t>
+  </si>
+  <si>
+    <t>5/07/2022 9:33:04</t>
+  </si>
+  <si>
+    <t>leidymoreno17@gmail.com</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>Leidy Johana</t>
+  </si>
+  <si>
+    <t>5/07/2022 12:21:39</t>
+  </si>
+  <si>
+    <t>jdavidr33@gmail.com</t>
+  </si>
+  <si>
+    <t>Vargas Restrepo</t>
+  </si>
+  <si>
+    <t>José David</t>
+  </si>
+  <si>
+    <t>5/07/2022 15:01:13</t>
+  </si>
+  <si>
+    <t>diferpar2009@gmail.com</t>
+  </si>
+  <si>
+    <t>Paternina Pineda</t>
+  </si>
+  <si>
+    <t>Diego Fernando</t>
+  </si>
+  <si>
+    <t>Comfasucre</t>
+  </si>
+  <si>
+    <t>5/07/2022 19:54:57</t>
+  </si>
+  <si>
+    <t>jhosseeth@gmail.com</t>
+  </si>
+  <si>
+    <t>Naranjo Alzate</t>
+  </si>
+  <si>
+    <t>Jhosseeth</t>
+  </si>
+  <si>
+    <t>5/07/2022 19:59:40</t>
+  </si>
+  <si>
+    <t>samuelinrc@gmail.com</t>
+  </si>
+  <si>
+    <t>Restrepo Carvajal</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>5/07/2022 20:01:36</t>
+  </si>
+  <si>
+    <t>manuelitagranada@gmail.com</t>
+  </si>
+  <si>
+    <t>Granada Alzate</t>
+  </si>
+  <si>
+    <t>Manuela</t>
+  </si>
+  <si>
+    <t>6/07/2022 6:35:12</t>
+  </si>
+  <si>
+    <t>katmrochav@hotmail.com</t>
+  </si>
+  <si>
+    <t>Rocha Gomez</t>
+  </si>
+  <si>
+    <t>Katia</t>
+  </si>
+  <si>
+    <t>6/07/2022 10:56:48</t>
+  </si>
+  <si>
+    <t>danieldfgg@gmail.com</t>
+  </si>
+  <si>
+    <t>GOMEZ GIRALDO</t>
+  </si>
+  <si>
+    <t>DANIEL FELIPE</t>
+  </si>
+  <si>
+    <t>6/07/2022 11:58:41</t>
+  </si>
+  <si>
+    <t>fauro61@gmail.com</t>
+  </si>
+  <si>
+    <t>Pineda ortiz</t>
+  </si>
+  <si>
+    <t>Fabricio</t>
   </si>
 </sst>
 </file>
@@ -1095,11 +1326,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:P90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomLeft" activeCell="O79" sqref="O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1110,7 +1341,7 @@
     <col min="12" max="12" width="21.85546875" customWidth="1"/>
     <col min="13" max="13" width="18.85546875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="29" customWidth="1"/>
+    <col min="15" max="15" width="34.28515625" customWidth="1"/>
     <col min="16" max="18" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4384,6 +4615,785 @@
         <v>23</v>
       </c>
     </row>
+    <row r="72" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E72" s="5">
+        <v>3186889155</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="5">
+        <v>1017163010</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I72" s="5">
+        <v>12</v>
+      </c>
+      <c r="K72" s="5">
+        <v>34</v>
+      </c>
+      <c r="L72" s="5">
+        <v>3152727560</v>
+      </c>
+      <c r="N72" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O72" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="P72" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E73" s="5">
+        <v>3012209694</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="5">
+        <v>15502452</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I73" s="5">
+        <v>12</v>
+      </c>
+      <c r="K73" s="5">
+        <v>63</v>
+      </c>
+      <c r="L73" s="5">
+        <v>3007917945</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="P73" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E74" s="5">
+        <v>3104485271</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="5">
+        <v>71527266</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I74" s="5">
+        <v>12</v>
+      </c>
+      <c r="K74" s="5">
+        <v>36</v>
+      </c>
+      <c r="L74" s="5">
+        <v>3228500896</v>
+      </c>
+      <c r="N74" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="P74" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E75" s="5">
+        <v>3117330780</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="5">
+        <v>1037322727</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I75" s="5">
+        <v>12</v>
+      </c>
+      <c r="K75" s="5">
+        <v>34</v>
+      </c>
+      <c r="L75" s="5">
+        <v>3006177366</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O75" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="P75" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E76" s="5">
+        <v>3186261793</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" s="5">
+        <v>1128391836</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I76" s="5">
+        <v>12</v>
+      </c>
+      <c r="K76" s="5">
+        <v>33</v>
+      </c>
+      <c r="L76" s="5">
+        <v>3122895839</v>
+      </c>
+      <c r="N76" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O76" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="P76" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E77" s="5">
+        <v>3116354140</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="5">
+        <v>70569208</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" s="5">
+        <v>12</v>
+      </c>
+      <c r="K77" s="5">
+        <v>55</v>
+      </c>
+      <c r="L77" s="5">
+        <v>3116354139</v>
+      </c>
+      <c r="N77" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O77" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="P77" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E78" s="5">
+        <v>3116774793</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" s="5">
+        <v>71386720</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I78" s="5">
+        <v>12</v>
+      </c>
+      <c r="K78" s="5">
+        <v>40</v>
+      </c>
+      <c r="L78" s="5">
+        <v>3126964958</v>
+      </c>
+      <c r="N78" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O78" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="P78" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E79" s="5">
+        <v>3127037721</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="5">
+        <v>71223957</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" s="5">
+        <v>12</v>
+      </c>
+      <c r="K79" s="5">
+        <v>41</v>
+      </c>
+      <c r="L79" s="5">
+        <v>3232748252</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="P79" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E80" s="5">
+        <v>3203726828</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" s="5">
+        <v>1037639402</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I80" s="5">
+        <v>27</v>
+      </c>
+      <c r="K80" s="5">
+        <v>27</v>
+      </c>
+      <c r="L80" s="5">
+        <v>3008822805</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O80" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="P80" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E81" s="5">
+        <v>3046630371</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" s="5">
+        <v>1104008977</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81" s="5">
+        <v>12</v>
+      </c>
+      <c r="K81" s="5">
+        <v>35</v>
+      </c>
+      <c r="L81" s="5">
+        <v>3114271079</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O81" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="P81" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E82" s="5">
+        <v>3137836716</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="5">
+        <v>1037389336</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I82" s="5">
+        <v>12</v>
+      </c>
+      <c r="K82" s="5">
+        <v>33</v>
+      </c>
+      <c r="L82" s="5">
+        <v>3134628847</v>
+      </c>
+      <c r="N82" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O82" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="P82" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E83" s="5">
+        <v>3116603973</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="5">
+        <v>1041148873</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" s="5">
+        <v>27</v>
+      </c>
+      <c r="K83" s="5">
+        <v>30</v>
+      </c>
+      <c r="L83" s="5">
+        <v>3148126354</v>
+      </c>
+      <c r="N83" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O83" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="P83" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E84" s="5">
+        <v>3004052439</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" s="5">
+        <v>1100629196</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I84" s="5">
+        <v>12</v>
+      </c>
+      <c r="K84" s="5">
+        <v>25</v>
+      </c>
+      <c r="L84" s="5">
+        <v>3002717415</v>
+      </c>
+      <c r="N84" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O84" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="P84" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E85" s="5">
+        <v>3195165123</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" s="5">
+        <v>1020451092</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="I85" s="5">
+        <v>12</v>
+      </c>
+      <c r="K85" s="5">
+        <v>30</v>
+      </c>
+      <c r="L85" s="5">
+        <v>3022417102</v>
+      </c>
+      <c r="N85" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O85" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P85" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E86" s="5">
+        <v>3126608535</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" s="5">
+        <v>1035414423</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I86" s="5">
+        <v>12</v>
+      </c>
+      <c r="K86" s="5">
+        <v>18</v>
+      </c>
+      <c r="L86" s="5">
+        <v>3113329677</v>
+      </c>
+      <c r="N86" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O86" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="P86" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E87" s="5">
+        <v>3022488788</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="5">
+        <v>1033487211</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="I87" s="5">
+        <v>12</v>
+      </c>
+      <c r="K87" s="5">
+        <v>17</v>
+      </c>
+      <c r="L87" s="5">
+        <v>3022417102</v>
+      </c>
+      <c r="N87" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O87" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="P87" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E88" s="5">
+        <v>3024239473</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="5">
+        <v>32935213</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" s="5">
+        <v>12</v>
+      </c>
+      <c r="K88" s="5">
+        <v>39</v>
+      </c>
+      <c r="L88" s="5">
+        <v>3215116777</v>
+      </c>
+      <c r="N88" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O88" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="P88" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E89" s="5">
+        <v>3116644450</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="5">
+        <v>1042426368</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I89" s="5">
+        <v>12</v>
+      </c>
+      <c r="K89" s="5">
+        <v>34</v>
+      </c>
+      <c r="L89" s="5">
+        <v>3103798712</v>
+      </c>
+      <c r="N89" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O89" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="P89" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E90" s="5">
+        <v>3003497303</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="5">
+        <v>98764234</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I90" s="5">
+        <v>12</v>
+      </c>
+      <c r="K90" s="5">
+        <v>36</v>
+      </c>
+      <c r="L90" s="5">
+        <v>3002984359</v>
+      </c>
+      <c r="N90" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O90" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="P90" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
